--- a/GaryD/src/알고리즘 진도.xlsx
+++ b/GaryD/src/알고리즘 진도.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gary\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gary\git\ALGORITHM\GaryD\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC8C5A9-95F4-46F7-8446-D84B13E6C781}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F985A644-6496-4003-AA96-9CE81CFFED58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-67320" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="알고리즘 기초" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
   <si>
     <t>강민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,8 +541,8 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -958,6 +958,9 @@
       <c r="B42" s="4">
         <v>2004</v>
       </c>
+      <c r="F42" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="5"/>
@@ -978,7 +981,7 @@
       </c>
       <c r="F43" s="6">
         <f t="shared" si="2"/>
-        <v>0.9375</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -987,6 +990,9 @@
       </c>
       <c r="B44" s="4">
         <v>2751</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -994,48 +1000,72 @@
       <c r="B45" s="4">
         <v>10989</v>
       </c>
+      <c r="F45" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="B46" s="4">
         <v>11650</v>
       </c>
+      <c r="F46" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="8"/>
       <c r="B47" s="4">
         <v>11651</v>
       </c>
+      <c r="F47" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="8"/>
       <c r="B48" s="4">
         <v>10814</v>
       </c>
+      <c r="F48" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="8"/>
       <c r="B49" s="4">
         <v>10825</v>
       </c>
+      <c r="F49" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="8"/>
       <c r="B50" s="4">
         <v>11652</v>
       </c>
+      <c r="F50" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="8"/>
       <c r="B51" s="4">
         <v>11004</v>
       </c>
+      <c r="F51" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="9"/>
       <c r="B52" s="4">
         <v>1377</v>
       </c>
+      <c r="F52" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="5"/>
@@ -1056,7 +1086,7 @@
       </c>
       <c r="F53" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">

--- a/GaryD/src/알고리즘 진도.xlsx
+++ b/GaryD/src/알고리즘 진도.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gary\git\ALGORITHM\GaryD\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F985A644-6496-4003-AA96-9CE81CFFED58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2088F059-5D84-4D3A-B6BC-34087858DA05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t>강민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,8 +541,8 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I50" sqref="I50"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -573,6 +573,9 @@
       <c r="B2" s="4">
         <v>10828</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -612,6 +615,9 @@
       <c r="B6" s="4">
         <v>10845</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
@@ -628,24 +634,36 @@
       <c r="B8" s="4">
         <v>10866</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="4">
         <v>10808</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="4">
         <v>10809</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="4">
         <v>10820</v>
       </c>
+      <c r="F11" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
@@ -670,12 +688,18 @@
       <c r="B14" s="4">
         <v>10824</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="4">
         <v>11656</v>
       </c>
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
@@ -696,7 +720,7 @@
       </c>
       <c r="F16" s="6">
         <f t="shared" si="0"/>
-        <v>0.42857142857142855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
@@ -1238,7 +1262,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F15 C17:F25 C44:F52 C54:F64 C66:F69 C27:F42" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:F42 C17:F25 C44:F52 C54:F64 C66:F69 C2:F15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$J$2:$J$3</formula1>
     </dataValidation>
   </dataValidations>

--- a/GaryD/src/알고리즘 진도.xlsx
+++ b/GaryD/src/알고리즘 진도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gary\git\ALGORITHM\GaryD\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2088F059-5D84-4D3A-B6BC-34087858DA05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD0F7C-27F3-435D-A117-F95EFB8B8AA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
   <si>
     <t>강민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,8 +541,8 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L56" sqref="L56"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1210,6 +1210,9 @@
       <c r="B66" s="4">
         <v>1991</v>
       </c>
+      <c r="F66" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="8"/>
@@ -1248,7 +1251,7 @@
       </c>
       <c r="F70" s="6">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>

--- a/GaryD/src/알고리즘 진도.xlsx
+++ b/GaryD/src/알고리즘 진도.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gary\git\ALGORITHM\GaryD\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD0F7C-27F3-435D-A117-F95EFB8B8AA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4A7C52-D0D4-48D6-853D-D24834124E19}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="14">
   <si>
     <t>강민</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,8 +541,8 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I67" sqref="I67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1219,18 +1219,27 @@
       <c r="B67" s="4">
         <v>11725</v>
       </c>
+      <c r="F67" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="8"/>
       <c r="B68" s="4">
         <v>1167</v>
       </c>
+      <c r="F68" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="9"/>
       <c r="B69" s="4">
         <v>1967</v>
       </c>
+      <c r="F69" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="5"/>
@@ -1251,7 +1260,7 @@
       </c>
       <c r="F70" s="6">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1274,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:F42 C17:F25 C44:F52 C54:F64 C66:F69 C2:F15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:F42 C17:F25 C44:F52 C54:F64 C2:F15 C66:F69" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$J$2:$J$3</formula1>
     </dataValidation>
   </dataValidations>
